--- a/biology/Médecine/1323_en_santé_et_médecine/1323_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1323_en_santé_et_médecine/1323_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1323_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1323_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1323 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1323_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1323_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation de l'hospice de Saint-Laurent de Wenemaere, à Gand, dans le comté de Flandre, par Guillaume de Wenemaere[2].
-Construction de l'hôpital d'Hesdin en Artois par la comtesse Mahaut[3].
-Une léproserie est attestée aux Bordes, dans le comté de Foix[4].
-Bien que l'uroscopie soit généralement réservée aux médecins, un accord passé entre un apothicaire et la ville catalane de Castellón stipule que le praticien « regardera et jugera loyalement les urines[5] ».
-1319-1323 : construction[6] de l'hôpital Saint-Jacques-aux-Pèlerins, rue Saint-Denis, à Paris[7].
-1320-1323 : fondation à Rouen, par Gilles Gaalon, son frère Pierre et sa femme Pétronille, de l'hôpital Saint-Jean-sur-Renelle, confié d'abord aux religieux des Billettes, repris plus tard par les Antonins[8],[9].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation de l'hospice de Saint-Laurent de Wenemaere, à Gand, dans le comté de Flandre, par Guillaume de Wenemaere.
+Construction de l'hôpital d'Hesdin en Artois par la comtesse Mahaut.
+Une léproserie est attestée aux Bordes, dans le comté de Foix.
+Bien que l'uroscopie soit généralement réservée aux médecins, un accord passé entre un apothicaire et la ville catalane de Castellón stipule que le praticien « regardera et jugera loyalement les urines ».
+1319-1323 : construction de l'hôpital Saint-Jacques-aux-Pèlerins, rue Saint-Denis, à Paris.
+1320-1323 : fondation à Rouen, par Gilles Gaalon, son frère Pierre et sa femme Pétronille, de l'hôpital Saint-Jean-sur-Renelle, confié d'abord aux religieux des Billettes, repris plus tard par les Antonins,.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1323_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1323_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Avant 1323 : Alègre de Jouque (date de naissance inconnue), médecin juif provençal, d'une famille originaire de Jouques, résidant à Trets, puis, dans les dernières années de sa vie, à Marseille[10].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Avant 1323 : Alègre de Jouque (date de naissance inconnue), médecin juif provençal, d'une famille originaire de Jouques, résidant à Trets, puis, dans les dernières années de sa vie, à Marseille.</t>
         </is>
       </c>
     </row>
